--- a/Financials/Quarterly/ADI_QTR_FIN.xlsx
+++ b/Financials/Quarterly/ADI_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0860726-BD07-4E0A-9FD5-9B581C101765}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADI" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>ADI</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,149 +689,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43498</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43407</v>
+      </c>
+      <c r="F7" s="2">
         <v>43316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43225</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43134</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43036</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42945</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42854</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42763</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1541100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1596600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1572700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3031700</v>
       </c>
-      <c r="F8" s="3">
-        <v>1518600</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>1566900</v>
+      </c>
+      <c r="I8" s="3">
         <v>1541200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1433900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2132400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>984400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1003600</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>501400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>502900</v>
+      </c>
+      <c r="F9" s="3">
         <v>502000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>962700</v>
       </c>
-      <c r="F9" s="3">
-        <v>483400</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>495200</v>
+      </c>
+      <c r="I9" s="3">
         <v>535100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>667300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>843500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>335900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1039700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1093700</v>
+      </c>
+      <c r="F10" s="3">
         <v>1070700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2069000</v>
       </c>
-      <c r="F10" s="3">
-        <v>1035200</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>1071700</v>
+      </c>
+      <c r="I10" s="3">
         <v>1006100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>766600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1288900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>648500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>666700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,37 +867,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>287400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>295700</v>
+      </c>
+      <c r="F12" s="3">
         <v>291600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>578100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>288600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>273700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>275700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>419200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>184000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>172900</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -866,66 +933,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>58400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>57300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>49500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>49500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>107300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>107300</v>
+      </c>
+      <c r="F15" s="3">
         <v>107400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>214100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>107000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>98300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>112200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>86900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>18200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,66 +1019,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1085300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1083200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1073600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2162400</v>
       </c>
-      <c r="F17" s="3">
-        <v>1113300</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>1125000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1093000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1239100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1720300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>718200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>455800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>513400</v>
+      </c>
+      <c r="F18" s="3">
         <v>499100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>869300</v>
       </c>
-      <c r="F18" s="3">
-        <v>405300</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>441900</v>
+      </c>
+      <c r="I18" s="3">
         <v>448200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>194800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>412100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>266200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1005,153 +1104,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E20" s="3">
         <v>3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G20" s="3">
         <v>3900</v>
       </c>
-      <c r="F20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>22200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>9700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>659300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>717800</v>
+      </c>
+      <c r="F21" s="3">
         <v>702100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1271200</v>
       </c>
-      <c r="F21" s="3">
-        <v>605300</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>641800</v>
+      </c>
+      <c r="I21" s="3">
         <v>634900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>402300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>626100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>330200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>59100</v>
+      </c>
+      <c r="F22" s="3">
         <v>61700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>132800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>68000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>63500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>73100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>114300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>42600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>399900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>457500</v>
+      </c>
+      <c r="F23" s="3">
         <v>440600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>740400</v>
       </c>
-      <c r="F23" s="3">
-        <v>338900</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>375300</v>
+      </c>
+      <c r="I23" s="3">
         <v>381700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>126800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>320000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>233300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>323400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F24" s="3">
         <v>26100</v>
       </c>
-      <c r="E24" s="3">
-        <v>92400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>710400</v>
-      </c>
       <c r="G24" s="3">
+        <v>45000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>82100</v>
+      </c>
+      <c r="I24" s="3">
         <v>34000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>57900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>9300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>16200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1179,66 +1310,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>347500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>439600</v>
+      </c>
+      <c r="F26" s="3">
         <v>414500</v>
       </c>
-      <c r="E26" s="3">
-        <v>648000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-371500</v>
-      </c>
       <c r="G26" s="3">
+        <v>695400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>293200</v>
+      </c>
+      <c r="I26" s="3">
         <v>347700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>68900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>310700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>217100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>346500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>438100</v>
+      </c>
+      <c r="F27" s="3">
         <v>412900</v>
       </c>
-      <c r="E27" s="3">
-        <v>645100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-372800</v>
-      </c>
       <c r="G27" s="3">
+        <v>692500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>292000</v>
+      </c>
+      <c r="I27" s="3">
         <v>346400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>67900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>310700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>217000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1266,25 +1415,31 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3">
-        <v>639700</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
+      <c r="G29" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-47400</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1295,8 +1450,14 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1485,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,66 +1520,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-3900</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I32" s="3">
         <v>3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-22200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-9700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>431500</v>
+      </c>
+      <c r="F33" s="3">
         <v>412900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>645100</v>
       </c>
-      <c r="F33" s="3">
-        <v>266900</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>244600</v>
+      </c>
+      <c r="I33" s="3">
         <v>346400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>67900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>310700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>217000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,71 +1625,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>431500</v>
+      </c>
+      <c r="F35" s="3">
         <v>412900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>645100</v>
       </c>
-      <c r="F35" s="3">
-        <v>266900</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>244600</v>
+      </c>
+      <c r="I35" s="3">
         <v>346400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>67900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>310700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>217000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43498</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43407</v>
+      </c>
+      <c r="F38" s="2">
         <v>43316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43225</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43134</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43036</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42945</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42854</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42763</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1719,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,37 +1734,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>605900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>816600</v>
+      </c>
+      <c r="F41" s="3">
         <v>772600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>806500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>827600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1047800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>908600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5697700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4987300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1572,226 +1785,274 @@
       <c r="F42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>490600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1329800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3134700</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>713700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>639700</v>
+      </c>
+      <c r="F43" s="3">
         <v>710800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>759600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>709800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>689000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>692600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>630400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>472500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>477600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>593200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>586800</v>
+      </c>
+      <c r="F44" s="3">
         <v>563600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>551200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>559700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>550800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>519700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>647900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>365600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>134900</v>
+      </c>
+      <c r="F45" s="3">
         <v>69600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>71000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>80700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>63700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>67800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>68900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>78600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1985200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2112100</v>
+      </c>
+      <c r="F46" s="3">
         <v>2116600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2188300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2177700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2351300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2188600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>7535500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7233700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4974900</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>28700</v>
+      </c>
+      <c r="F47" s="3">
         <v>28500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>27000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>26200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>24800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>29000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>28500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>23000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1181700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1154300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1108000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1114600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1115400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1107300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1098800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1089300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>628900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>636100</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16885600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>21809000</v>
+      </c>
+      <c r="F49" s="3">
         <v>17174900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>17324400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>17406500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>17536900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>17682500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>17857400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2206900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2228500</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +2080,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,37 +2115,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1741000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>104400</v>
+      </c>
+      <c r="F52" s="3">
         <v>120600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>122200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>127400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>120900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>116000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>112000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>110800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,37 +2185,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21828300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20430400</v>
+      </c>
+      <c r="F54" s="3">
         <v>20548600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>20776500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>20853300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>21141300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>21115000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>26622700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10203400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7970300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2239,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,182 +2254,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>222600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>260900</v>
+      </c>
+      <c r="F57" s="3">
         <v>215700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>213300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>223100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>236600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>228100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>190200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>156700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>67000</v>
+      </c>
+      <c r="F58" s="3">
         <v>22500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>56000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>50000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>300000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I58" s="3">
-        <v>4321200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+        <v>4321200</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>627400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1211200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1163600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>963400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1059700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>873000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>937900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>655000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>611500</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>850000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1051700</v>
+      </c>
+      <c r="F60" s="3">
         <v>1338900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1432900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1236500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1596300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1101100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5449300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>811600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>782900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6234500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6265700</v>
+      </c>
+      <c r="F61" s="3">
         <v>6532700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6926400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7384900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7551100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>8199200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>8572400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3805400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1732200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3158400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1844800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1820800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1831800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1884100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1832300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1891800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2634400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>279900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>289500</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2495,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2193,8 +2530,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,37 +2565,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10242800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9162300</v>
+      </c>
+      <c r="F66" s="3">
         <v>9692400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10191100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10505500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10979800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11192100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>16656100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4896900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2804700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2619,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2650,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2685,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2720,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,37 +2755,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6491000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>5982700</v>
+      </c>
+      <c r="F72" s="3">
         <v>5449500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>5213900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>5012400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>4910900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>4730100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>4827500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4873200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4785800</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2825,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2860,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,37 +2895,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11585400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11268200</v>
+      </c>
+      <c r="F76" s="3">
         <v>10856200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>10585400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>10347800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>10161500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>9922900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>9966600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5306400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5165600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,71 +2965,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43498</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43407</v>
+      </c>
+      <c r="F80" s="2">
         <v>43316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43225</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43134</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43036</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42945</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42854</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42763</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>431500</v>
+      </c>
+      <c r="F81" s="3">
         <v>412900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>645100</v>
       </c>
-      <c r="F81" s="3">
-        <v>266900</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>244600</v>
+      </c>
+      <c r="I81" s="3">
         <v>346400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>67900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>310700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>217000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,37 +3059,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>201200</v>
+      </c>
+      <c r="F83" s="3">
         <v>199900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>398000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>198500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>189700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>202500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>191900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>54300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +3125,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +3160,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3195,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +3230,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,37 +3265,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>371800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>714400</v>
+      </c>
+      <c r="F89" s="3">
         <v>620700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1107200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>388700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>610700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-360000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>861900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>322600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>487000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,37 +3319,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-51800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-117100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-63200</v>
       </c>
-      <c r="G91" s="3">
-        <v>73700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-127200</v>
-      </c>
       <c r="I91" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-150500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-56700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3385,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,37 +3420,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-96200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-54500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-170500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-64500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-13000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>426100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-7031000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>1769800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-556900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,37 +3474,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-177700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-179400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-178900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-345000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-166700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-166900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-166300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-269000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-129700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-129600</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3540,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3575,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,91 +3610,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-486100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-580700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-599100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1178200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-548000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-490100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-4853000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>10971700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1982600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-111400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>3600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-210700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-33900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-241300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-220300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>139300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-4789200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>4776600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4066100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-182500</v>
       </c>
     </row>

--- a/Financials/Quarterly/ADI_QTR_FIN.xlsx
+++ b/Financials/Quarterly/ADI_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0860726-BD07-4E0A-9FD5-9B581C101765}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="ADI" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>ADI</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,173 +654,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43771</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43680</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43589</v>
+      </c>
+      <c r="G7" s="2">
         <v>43498</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43407</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43225</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43134</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43036</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42945</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42854</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42763</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1443200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1480100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3067700</v>
+      </c>
+      <c r="G8" s="3">
         <v>1541100</v>
       </c>
-      <c r="E8" s="3">
-        <v>1596600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1572700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3031700</v>
-      </c>
       <c r="H8" s="3">
+        <v>1536100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1558200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3130400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1566900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>1541200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>1433900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>2132400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>984400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>1003600</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>482300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>994000</v>
+      </c>
+      <c r="G9" s="3">
         <v>501400</v>
       </c>
-      <c r="E9" s="3">
-        <v>502900</v>
-      </c>
-      <c r="F9" s="3">
-        <v>502000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>962700</v>
-      </c>
       <c r="H9" s="3">
+        <v>490400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>497600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>986300</v>
+      </c>
+      <c r="K9" s="3">
         <v>495200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>535100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>667300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>843500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>335900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>336900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>942200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>997800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2073700</v>
+      </c>
+      <c r="G10" s="3">
         <v>1039700</v>
       </c>
-      <c r="E10" s="3">
-        <v>1093700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1070700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2069000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1045700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1060600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2144100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1071700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>1006100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>766600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>1288900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>648500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>666700</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,43 +870,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>280100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>573200</v>
+      </c>
+      <c r="G12" s="3">
         <v>287400</v>
       </c>
-      <c r="E12" s="3">
-        <v>295700</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
+        <v>295300</v>
+      </c>
+      <c r="I12" s="3">
         <v>291600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>578100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>288600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>273700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>275700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>419200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>184000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>172900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,78 +952,105 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>900</v>
+      </c>
+      <c r="F14" s="3">
+        <v>29900</v>
+      </c>
+      <c r="G14" s="3">
         <v>21800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>58400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>57300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>49500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>49500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>107200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>214600</v>
+      </c>
+      <c r="G15" s="3">
         <v>107300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>107300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <v>107400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
         <v>214100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
         <v>107000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>98300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>112200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>86900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>18200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>17900</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,78 +1061,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1104900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1033400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2142200</v>
+      </c>
+      <c r="G17" s="3">
         <v>1085300</v>
       </c>
-      <c r="E17" s="3">
-        <v>1083200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1073600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2162400</v>
-      </c>
       <c r="H17" s="3">
+        <v>1069900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1069200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2186000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1125000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1093000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>1239100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>1720300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>718200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>646600</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>338300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>446700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>925500</v>
+      </c>
+      <c r="G18" s="3">
         <v>455800</v>
       </c>
-      <c r="E18" s="3">
-        <v>513400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>499100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>869300</v>
-      </c>
       <c r="H18" s="3">
+        <v>466200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>489000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>944400</v>
+      </c>
+      <c r="K18" s="3">
         <v>441900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>448200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>194800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>412100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>266200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>357000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1106,183 +1167,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G20" s="3">
         <v>2800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>22200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>9700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>543800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>653600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1328700</v>
+      </c>
+      <c r="G21" s="3">
         <v>659300</v>
       </c>
-      <c r="E21" s="3">
-        <v>717800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>702100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1271200</v>
-      </c>
       <c r="H21" s="3">
+        <v>669600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>692000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1346300</v>
+      </c>
+      <c r="K21" s="3">
         <v>641800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>634900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>402300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>626100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>330200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>415900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>59900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>118400</v>
+      </c>
+      <c r="G22" s="3">
         <v>58700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>59100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>61700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>132800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>68000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>63500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>73100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>114300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>42600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>38800</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>287800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>389600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>808300</v>
+      </c>
+      <c r="G23" s="3">
         <v>399900</v>
       </c>
-      <c r="E23" s="3">
-        <v>457500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>440600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>740400</v>
-      </c>
       <c r="H23" s="3">
+        <v>409300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>430500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>815500</v>
+      </c>
+      <c r="K23" s="3">
         <v>375300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>381700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>126800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>320000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>233300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>323400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>52400</v>
+        <v>10100</v>
       </c>
       <c r="E24" s="3">
-        <v>18000</v>
+        <v>27200</v>
       </c>
       <c r="F24" s="3">
-        <v>26100</v>
+        <v>85400</v>
       </c>
       <c r="G24" s="3">
-        <v>45000</v>
+        <v>44900</v>
       </c>
       <c r="H24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>21900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>121900</v>
+      </c>
+      <c r="K24" s="3">
         <v>82100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>34000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>57900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>9300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>16200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>27300</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1316,78 +1425,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>347500</v>
+        <v>277700</v>
       </c>
       <c r="E26" s="3">
-        <v>439600</v>
+        <v>362400</v>
       </c>
       <c r="F26" s="3">
-        <v>414500</v>
+        <v>722900</v>
       </c>
       <c r="G26" s="3">
-        <v>695400</v>
+        <v>355000</v>
       </c>
       <c r="H26" s="3">
+        <v>404900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>408600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>693600</v>
+      </c>
+      <c r="K26" s="3">
         <v>293200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>347700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>68900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>310700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>217100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>346500</v>
+        <v>277200</v>
       </c>
       <c r="E27" s="3">
-        <v>438100</v>
+        <v>361600</v>
       </c>
       <c r="F27" s="3">
-        <v>412900</v>
+        <v>721000</v>
       </c>
       <c r="G27" s="3">
-        <v>692500</v>
+        <v>354000</v>
       </c>
       <c r="H27" s="3">
+        <v>403400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>407000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>690700</v>
+      </c>
+      <c r="K27" s="3">
         <v>292000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>346400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>67900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>310700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>217000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1421,34 +1557,43 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>7500</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-6600</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G29" s="3">
-        <v>-47400</v>
+        <v>7500</v>
       </c>
       <c r="H29" s="3">
-        <v>-47400</v>
+        <v>-6600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="J29" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-47400</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -1456,8 +1601,17 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1491,8 +1645,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1526,78 +1689,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>-3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-22200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-9700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>354000</v>
+        <v>277200</v>
       </c>
       <c r="E33" s="3">
-        <v>431500</v>
+        <v>361600</v>
       </c>
       <c r="F33" s="3">
-        <v>412900</v>
+        <v>721000</v>
       </c>
       <c r="G33" s="3">
-        <v>645100</v>
+        <v>361500</v>
       </c>
       <c r="H33" s="3">
+        <v>396800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>407000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>643300</v>
+      </c>
+      <c r="K33" s="3">
         <v>244600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>346400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>67900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>310700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>217000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1631,83 +1821,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>354000</v>
+        <v>277200</v>
       </c>
       <c r="E35" s="3">
-        <v>431500</v>
+        <v>361600</v>
       </c>
       <c r="F35" s="3">
-        <v>412900</v>
+        <v>721000</v>
       </c>
       <c r="G35" s="3">
-        <v>645100</v>
+        <v>361500</v>
       </c>
       <c r="H35" s="3">
+        <v>396800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>407000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>643300</v>
+      </c>
+      <c r="K35" s="3">
         <v>244600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>346400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>67900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>310700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>217000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43771</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43680</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43589</v>
+      </c>
+      <c r="G38" s="2">
         <v>43498</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43407</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43225</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43134</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43036</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42945</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42854</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42763</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1721,8 +1938,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1736,323 +1956,407 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>648300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>612200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>713600</v>
+      </c>
+      <c r="G41" s="3">
         <v>605900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>816600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>772600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>806500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>827600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>1047800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>908600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>5697700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>4987300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>490600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>1329800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>3134700</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>635100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>690000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>686000</v>
+      </c>
+      <c r="G43" s="3">
         <v>713700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>639700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>710800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>759600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>709800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>689000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>692600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>630400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>472500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>477600</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>609900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>638300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>608100</v>
+      </c>
+      <c r="G44" s="3">
         <v>593200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>586800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
         <v>563600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>551200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>559700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>550800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>519700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>647900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>365600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>376600</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>91800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>66600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>72800</v>
+      </c>
+      <c r="G45" s="3">
         <v>72400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>134900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>69600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>71000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>80700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>63700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>67800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>68900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>78600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>64900</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1985100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2007100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2080500</v>
+      </c>
+      <c r="G46" s="3">
         <v>1985200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>2112100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>2116600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>2188300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>2177700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>2351300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>2188600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>7535500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>7233700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>4974900</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>32300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>31600</v>
+      </c>
+      <c r="G47" s="3">
         <v>34800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>28700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>28500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>27000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>26200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>24800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>29000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>28500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>23000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>21900</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1221200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1211500</v>
+      </c>
+      <c r="G48" s="3">
         <v>1181700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>1154300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>1108000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>1114600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>1115400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>1107300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>1098800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>1089300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>628900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>636100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16474100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>16594300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>16739600</v>
+      </c>
+      <c r="G49" s="3">
         <v>16885600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>21809000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>17174900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>17324400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>17406500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>17536900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>17682500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>17857400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>2206900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>2228500</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2086,8 +2390,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2121,43 +2434,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1683300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1711800</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1713200</v>
+      </c>
+      <c r="G52" s="3">
         <v>1741000</v>
       </c>
-      <c r="E52" s="3">
-        <v>104400</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
+        <v>112400</v>
+      </c>
+      <c r="I52" s="3">
         <v>120600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>122200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>127400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>120900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>116000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>112000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>110800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>108900</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2191,43 +2522,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21392600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>21566700</v>
+      </c>
+      <c r="F54" s="3">
+        <v>21776300</v>
+      </c>
+      <c r="G54" s="3">
         <v>21828300</v>
       </c>
-      <c r="E54" s="3">
-        <v>20430400</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
+        <v>20438400</v>
+      </c>
+      <c r="I54" s="3">
         <v>20548600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>20776500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>20853300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>21141300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>21115000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>26622700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>10203400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>7970300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2241,8 +2590,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2256,218 +2608,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>225300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>220200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>208200</v>
+      </c>
+      <c r="G57" s="3">
         <v>222600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>260900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>215700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>213300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>223100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>236600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>228100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>190200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>156700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>299700</v>
       </c>
       <c r="E58" s="3">
+        <v>411400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>374200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>67000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>22500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>56000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>50000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>300000</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>4321200</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>983700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>852000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>782600</v>
+      </c>
+      <c r="G59" s="3">
         <v>627400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>1211200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>1100700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1163600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>963400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1059700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>873000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>937900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>655000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>611500</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1508600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1483700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="G60" s="3">
         <v>850000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>1051700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>1338900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>1432900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>1236500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>1596300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1101100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>5449300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>811600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>782900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5192300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5278600</v>
+      </c>
+      <c r="F61" s="3">
+        <v>5612400</v>
+      </c>
+      <c r="G61" s="3">
         <v>6234500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>6265700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>6532700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>6926400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>7384900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>7551100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>8199200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>8572400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>3805400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>1732200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2982600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3014100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3056700</v>
+      </c>
+      <c r="G62" s="3">
         <v>3158400</v>
       </c>
-      <c r="E62" s="3">
-        <v>1844800</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
+        <v>1852800</v>
+      </c>
+      <c r="I62" s="3">
         <v>1820800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>1831800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>1884100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>1832300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>1891800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>2634400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>279900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>289500</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2501,8 +2910,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2536,8 +2954,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2571,43 +2998,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9683500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9776400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>10034100</v>
+      </c>
+      <c r="G66" s="3">
         <v>10242800</v>
       </c>
-      <c r="E66" s="3">
-        <v>9162300</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
+        <v>9170200</v>
+      </c>
+      <c r="I66" s="3">
         <v>9692400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>10191100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>10505500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>10979800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>11192100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>16656100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>4896900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>2804700</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2621,8 +3066,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2656,8 +3104,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2691,8 +3148,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2726,8 +3192,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2761,43 +3236,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6899300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6821800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>6659400</v>
+      </c>
+      <c r="G72" s="3">
         <v>6491000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>5982700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>5449500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>5213900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>5012400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>4910900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>4730100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>4827500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>4873200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>4785800</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2831,8 +3324,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2866,8 +3368,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2901,43 +3412,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11709200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11790200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>11742300</v>
+      </c>
+      <c r="G76" s="3">
         <v>11585400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>11268200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>10856200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>10585400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>10347800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>10161500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>9922900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>9966600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>5306400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>5165600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2971,83 +3500,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43771</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43680</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43589</v>
+      </c>
+      <c r="G80" s="2">
         <v>43498</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43407</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43225</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43134</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43036</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42945</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42854</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42763</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>354000</v>
+        <v>277200</v>
       </c>
       <c r="E81" s="3">
-        <v>431500</v>
+        <v>361600</v>
       </c>
       <c r="F81" s="3">
-        <v>412900</v>
+        <v>721000</v>
       </c>
       <c r="G81" s="3">
-        <v>645100</v>
+        <v>361500</v>
       </c>
       <c r="H81" s="3">
+        <v>396800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>407000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>643300</v>
+      </c>
+      <c r="K81" s="3">
         <v>244600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>346400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>67900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>310700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>217000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>296200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3061,43 +3617,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>205200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>204100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>402000</v>
+      </c>
+      <c r="G83" s="3">
         <v>200600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>201200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>199900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>398000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>198500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>189700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>202500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>191900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>54300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3131,8 +3699,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3166,8 +3743,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3201,8 +3787,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3236,8 +3831,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3271,43 +3875,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>657900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>552500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1042600</v>
+      </c>
+      <c r="G89" s="3">
         <v>371800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>714400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>620700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>1107200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>388700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>610700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-360000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>861900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>322600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>487000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3321,43 +3943,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-166200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-91000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-86000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-51800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-117100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-63200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-65200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-63600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-150500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-56700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-41200</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3391,8 +4025,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3426,43 +4069,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-170800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-96200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-89000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-54500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-170500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-64500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-13000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>426100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-7031000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>1769800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-556900</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3476,43 +4137,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-200200</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-200100</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-377200</v>
+      </c>
+      <c r="G96" s="3">
         <v>-177700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="H96" s="3">
         <v>-179400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="I96" s="3">
         <v>-178900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="J96" s="3">
         <v>-345000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="K96" s="3">
         <v>-166700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>-166900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-166300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-269000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-129700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>-129600</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3546,8 +4219,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3581,8 +4263,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3616,109 +4307,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-557100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-594600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-975100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-486100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>-580700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-599100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-1178200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>-548000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-490100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-4853000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>10971700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>1982600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-111400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
         <v>-700</v>
       </c>
       <c r="F101" s="3">
+        <v>200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>3600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-101400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-210700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>44000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-33900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-241300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-220300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>139300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-4789200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>4776600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>4066100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-182500</v>
       </c>
     </row>
